--- a/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71684B44-CE8E-44C3-A9B5-829CAFC705CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0719F34-8DE0-4002-8046-8C9482F8F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02BBC567-A5BA-4512-83B3-86F8A5B2E7B0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DCADEDF-7821-46AE-9E9E-C8C57DCA2042}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -116,12 +116,15 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
     <t>Sí, por algún familiar</t>
   </si>
   <si>
@@ -134,397 +137,421 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F579A0-02F3-424C-976D-E8EA8A617749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98779AD9-4DEC-451E-92C9-D3BFD7C18172}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,13 +1228,13 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1258,7 +1285,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1359,7 +1386,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1371,13 +1398,13 @@
         <v>543418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>993</v>
@@ -1386,10 +1413,10 @@
         <v>591803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1401,13 +1428,13 @@
         <v>1135221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1449,13 @@
         <v>2135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1443,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1452,13 +1479,13 @@
         <v>2135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1473,13 +1500,13 @@
         <v>1763</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1488,13 +1515,13 @@
         <v>593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1503,19 +1530,19 @@
         <v>2356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1524,13 +1551,13 @@
         <v>954</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1545,7 +1572,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1554,19 +1581,19 @@
         <v>954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1575,13 +1602,13 @@
         <v>1553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1590,13 +1617,13 @@
         <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1608,10 +1635,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,7 +1694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1679,13 +1706,13 @@
         <v>1023787</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>1494</v>
@@ -1694,13 +1721,13 @@
         <v>1044125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>2444</v>
@@ -1709,13 +1736,13 @@
         <v>2067912</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1757,13 @@
         <v>6464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1745,13 +1772,13 @@
         <v>5320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1760,10 +1787,10 @@
         <v>11784</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>76</v>
@@ -1817,13 +1844,13 @@
         <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -1832,13 +1859,13 @@
         <v>3630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1847,13 +1874,13 @@
         <v>1447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1862,7 +1889,7 @@
         <v>5077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>89</v>
@@ -1874,7 +1901,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1889,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1898,7 +1925,7 @@
         <v>2026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -1913,7 +1940,7 @@
         <v>2026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
@@ -1993,7 +2020,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -2002,13 +2029,13 @@
         <v>856755</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>1688</v>
@@ -2017,13 +2044,13 @@
         <v>1565021</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2065,13 @@
         <v>13920</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2056,10 +2083,10 @@
         <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2068,13 +2095,13 @@
         <v>17726</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2116,13 @@
         <v>5026</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2104,13 +2131,13 @@
         <v>5076</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2119,19 +2146,19 @@
         <v>10103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2146,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2155,13 +2182,13 @@
         <v>677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2170,19 +2197,19 @@
         <v>677</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2191,13 +2218,13 @@
         <v>554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2206,13 +2233,13 @@
         <v>4089</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2221,13 +2248,13 @@
         <v>4643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2310,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2322,13 @@
         <v>934894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7">
         <v>1529</v>
@@ -2310,28 +2337,28 @@
         <v>1121960</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>2507</v>
       </c>
       <c r="N28" s="7">
-        <v>2056855</v>
+        <v>2056854</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2373,13 @@
         <v>17812</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2361,13 +2388,13 @@
         <v>9696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2376,13 +2403,13 @@
         <v>27508</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2424,13 @@
         <v>7290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2412,13 +2439,13 @@
         <v>6522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2427,19 +2454,19 @@
         <v>13812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -2448,13 +2475,13 @@
         <v>1864</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2463,13 +2490,13 @@
         <v>2535</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -2478,19 +2505,19 @@
         <v>4399</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2499,13 +2526,13 @@
         <v>2354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2514,13 +2541,13 @@
         <v>8246</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2529,13 +2556,13 @@
         <v>10599</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2604,7 @@
         <v>2565</v>
       </c>
       <c r="N33" s="7">
-        <v>2113174</v>
+        <v>2113173</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -2603,13 +2630,13 @@
         <v>3312347</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H34" s="7">
         <v>5285</v>
@@ -2618,28 +2645,28 @@
         <v>3745019</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>8597</v>
       </c>
       <c r="N34" s="7">
-        <v>7057366</v>
+        <v>7057367</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2681,13 @@
         <v>40329</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
@@ -2669,13 +2696,13 @@
         <v>18823</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="M35" s="7">
         <v>56</v>
@@ -2684,13 +2711,13 @@
         <v>59153</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2732,13 @@
         <v>18696</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2723,10 +2750,10 @@
         <v>77</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -2735,19 +2762,19 @@
         <v>35270</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <v>6</v>
@@ -2756,13 +2783,13 @@
         <v>6447</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2771,13 +2798,13 @@
         <v>4659</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -2789,16 +2816,16 @@
         <v>27</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -2807,13 +2834,13 @@
         <v>4461</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -2825,10 +2852,10 @@
         <v>80</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M38" s="7">
         <v>22</v>
@@ -2837,13 +2864,13 @@
         <v>18980</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2912,7 @@
         <v>8723</v>
       </c>
       <c r="N39" s="7">
-        <v>7181876</v>
+        <v>7181877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -2899,7 +2926,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0719F34-8DE0-4002-8046-8C9482F8F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{461AA098-1521-41DE-9B58-63366FDBCF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DCADEDF-7821-46AE-9E9E-C8C57DCA2042}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46BF6EF9-F777-4BB1-A570-38CA32B0DCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -131,7 +131,7 @@
     <t>Sí, por mi pareja/expareja</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -221,7 +221,7 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -317,7 +317,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>97,32%</t>
@@ -966,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98779AD9-4DEC-451E-92C9-D3BFD7C18172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374616B7-9638-4E1E-ADD9-E5FEAE2FC3C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461AA098-1521-41DE-9B58-63366FDBCF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF1EA94-8821-4868-8567-B9AC0DEB4E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46BF6EF9-F777-4BB1-A570-38CA32B0DCF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3948732E-B5E6-43A6-BF37-B0DDD9E199C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,1%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>Sí, por otra persona desconocida</t>
@@ -116,15 +116,12 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
     <t>Sí, por algún familiar</t>
   </si>
   <si>
@@ -137,49 +134,49 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -188,370 +185,346 @@
     <t>0,05%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374616B7-9638-4E1E-ADD9-E5FEAE2FC3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E749B6-EC5A-4B39-A243-015979623B40}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,13 +1201,13 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1285,7 +1258,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1386,7 +1359,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1398,13 +1371,13 @@
         <v>543418</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>993</v>
@@ -1413,10 +1386,10 @@
         <v>591803</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1428,13 +1401,13 @@
         <v>1135221</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,13 +1422,13 @@
         <v>2135</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1470,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1479,13 +1452,13 @@
         <v>2135</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,13 +1473,13 @@
         <v>1763</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1515,13 +1488,13 @@
         <v>593</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1530,19 +1503,19 @@
         <v>2356</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1551,13 +1524,13 @@
         <v>954</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1572,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1581,19 +1554,19 @@
         <v>954</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1602,13 +1575,13 @@
         <v>1553</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1617,13 +1590,13 @@
         <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1635,10 +1608,10 @@
         <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,7 +1667,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1706,13 +1679,13 @@
         <v>1023787</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>1494</v>
@@ -1721,13 +1694,13 @@
         <v>1044125</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>2444</v>
@@ -1736,13 +1709,13 @@
         <v>2067912</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1730,13 @@
         <v>6464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1772,13 +1745,13 @@
         <v>5320</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1787,10 +1760,10 @@
         <v>11784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>76</v>
@@ -1844,13 +1817,13 @@
         <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -1859,13 +1832,13 @@
         <v>3630</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1874,13 +1847,13 @@
         <v>1447</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1889,7 +1862,7 @@
         <v>5077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>89</v>
@@ -1901,7 +1874,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1916,7 +1889,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -1925,7 +1898,7 @@
         <v>2026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -1940,7 +1913,7 @@
         <v>2026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
@@ -2020,7 +1993,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -2029,13 +2002,13 @@
         <v>856755</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>1688</v>
@@ -2044,13 +2017,13 @@
         <v>1565021</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2038,13 @@
         <v>13920</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2083,10 +2056,10 @@
         <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -2095,13 +2068,13 @@
         <v>17726</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,13 +2089,13 @@
         <v>5026</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2131,13 +2104,13 @@
         <v>5076</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2146,19 +2119,19 @@
         <v>10103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2173,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2182,13 +2155,13 @@
         <v>677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2197,19 +2170,19 @@
         <v>677</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2218,13 +2191,13 @@
         <v>554</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2233,13 +2206,13 @@
         <v>4089</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2248,13 +2221,13 @@
         <v>4643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2283,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2322,13 +2295,13 @@
         <v>934894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7">
         <v>1529</v>
@@ -2337,28 +2310,28 @@
         <v>1121960</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="M28" s="7">
         <v>2507</v>
       </c>
       <c r="N28" s="7">
-        <v>2056854</v>
+        <v>2056855</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2346,13 @@
         <v>17812</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -2388,13 +2361,13 @@
         <v>9696</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2403,13 +2376,13 @@
         <v>27508</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2397,13 @@
         <v>7290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2439,13 +2412,13 @@
         <v>6522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2454,19 +2427,19 @@
         <v>13812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -2475,13 +2448,13 @@
         <v>1864</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2490,13 +2463,13 @@
         <v>2535</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -2505,19 +2478,19 @@
         <v>4399</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2526,13 +2499,13 @@
         <v>2354</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2541,13 +2514,13 @@
         <v>8246</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2556,13 +2529,13 @@
         <v>10599</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2577,7 @@
         <v>2565</v>
       </c>
       <c r="N33" s="7">
-        <v>2113173</v>
+        <v>2113174</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
@@ -2630,13 +2603,13 @@
         <v>3312347</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7">
         <v>5285</v>
@@ -2645,28 +2618,28 @@
         <v>3745019</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M34" s="7">
         <v>8597</v>
       </c>
       <c r="N34" s="7">
-        <v>7057367</v>
+        <v>7057366</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2654,13 @@
         <v>40329</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H35" s="7">
         <v>23</v>
@@ -2696,13 +2669,13 @@
         <v>18823</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="M35" s="7">
         <v>56</v>
@@ -2711,13 +2684,13 @@
         <v>59153</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2705,13 @@
         <v>18696</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2750,10 +2723,10 @@
         <v>77</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -2762,19 +2735,19 @@
         <v>35270</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="7">
         <v>6</v>
@@ -2783,13 +2756,13 @@
         <v>6447</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -2798,13 +2771,13 @@
         <v>4659</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -2816,16 +2789,16 @@
         <v>27</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -2834,13 +2807,13 @@
         <v>4461</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -2852,10 +2825,10 @@
         <v>80</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>22</v>
@@ -2864,13 +2837,13 @@
         <v>18980</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2885,7 @@
         <v>8723</v>
       </c>
       <c r="N39" s="7">
-        <v>7181877</v>
+        <v>7181876</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -2926,7 +2899,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF1EA94-8821-4868-8567-B9AC0DEB4E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F87D98D-A8DD-417A-9F3A-2CFE7015D8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3948732E-B5E6-43A6-BF37-B0DDD9E199C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{52DFCCC8-2BAC-4C88-9954-A8E0F3A9E9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
   <si>
     <t>Población según si en los últimos 2 años han sufrido algún tipo de agresión  física, emocional o sexual por alguna persona diferente a su pareja en 2023 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -65,466 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona desconocida</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Sí, por otra persona conocida</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Sí, por algún familiar</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>Sí, por mi pareja/expareja</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona desconocida</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Sí, por otra persona conocida</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>Sí, por algún familiar</t>
-  </si>
-  <si>
-    <t>Sí, por mi pareja/expareja</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E749B6-EC5A-4B39-A243-015979623B40}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB83FBE-5B46-4E48-A6B3-359AB37F4ADB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1057,10 +1039,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>118</v>
+        <v>723</v>
       </c>
       <c r="D4" s="7">
-        <v>101982</v>
+        <v>629671</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1072,10 +1054,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>242</v>
+        <v>1235</v>
       </c>
       <c r="I4" s="7">
-        <v>130376</v>
+        <v>674320</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1084,43 +1066,43 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>360</v>
+        <v>1958</v>
       </c>
       <c r="N4" s="7">
-        <v>232358</v>
+        <v>1303991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1129,100 +1111,100 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>891</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>357</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>357</v>
+        <v>2511</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1231,79 +1213,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1539</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>159</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>1698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,306 +1294,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D9" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I9" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N9" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>605</v>
+        <v>950</v>
       </c>
       <c r="D10" s="7">
-        <v>543418</v>
+        <v>1178468</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>993</v>
+        <v>1494</v>
       </c>
       <c r="I10" s="7">
-        <v>591803</v>
+        <v>944332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>1598</v>
+        <v>2444</v>
       </c>
       <c r="N10" s="7">
-        <v>1135221</v>
+        <v>2122800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2135</v>
+        <v>5740</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>2135</v>
+        <v>10538</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4225</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3573</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1763</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>593</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>2356</v>
+        <v>7798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>954</v>
+        <v>3755</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5124</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>954</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1553</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
       <c r="I14" s="7">
-        <v>159</v>
+        <v>1704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,306 +1602,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D15" s="7">
-        <v>549823</v>
+        <v>1192188</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7">
-        <v>995</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>592555</v>
+        <v>955777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
-        <v>1607</v>
+        <v>2473</v>
       </c>
       <c r="N15" s="7">
-        <v>1142378</v>
+        <v>2147965</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>950</v>
+        <v>661</v>
       </c>
       <c r="D16" s="7">
-        <v>1023787</v>
+        <v>685842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>1494</v>
+        <v>1027</v>
       </c>
       <c r="I16" s="7">
-        <v>1044125</v>
+        <v>917738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>2444</v>
+        <v>1688</v>
       </c>
       <c r="N16" s="7">
-        <v>2067912</v>
+        <v>1603578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>6464</v>
+        <v>13120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>5320</v>
+        <v>3247</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>11784</v>
+        <v>16367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4273</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>4616</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
       <c r="I18" s="7">
-        <v>4026</v>
+        <v>4413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>8642</v>
+        <v>8686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>3630</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1447</v>
+        <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>5077</v>
+        <v>593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>2026</v>
+        <v>3794</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>2026</v>
+        <v>4310</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,306 +1910,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D21" s="7">
-        <v>1038497</v>
+        <v>703750</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
-        <v>1510</v>
+        <v>1042</v>
       </c>
       <c r="I21" s="7">
-        <v>1056944</v>
+        <v>929785</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
-        <v>2473</v>
+        <v>1717</v>
       </c>
       <c r="N21" s="7">
-        <v>2095441</v>
+        <v>1633534</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>661</v>
+        <v>978</v>
       </c>
       <c r="D22" s="7">
-        <v>708266</v>
+        <v>897810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>1027</v>
+        <v>1529</v>
       </c>
       <c r="I22" s="7">
-        <v>856755</v>
+        <v>1069081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>1688</v>
+        <v>2507</v>
       </c>
       <c r="N22" s="7">
-        <v>1565021</v>
+        <v>1966891</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>13920</v>
+        <v>16472</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>3807</v>
+        <v>8817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>17726</v>
+        <v>25288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5026</v>
+        <v>7337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>5076</v>
+        <v>5534</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>10103</v>
+        <v>12871</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>677</v>
+        <v>2300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>677</v>
+        <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>554</v>
+        <v>2315</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>4089</v>
+        <v>7956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>4643</v>
+        <v>10271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,306 +2218,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D27" s="7">
-        <v>727766</v>
+        <v>925825</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
-        <v>1042</v>
+        <v>1560</v>
       </c>
       <c r="I27" s="7">
-        <v>870404</v>
+        <v>1093687</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
-        <v>1717</v>
+        <v>2565</v>
       </c>
       <c r="N27" s="7">
-        <v>1598170</v>
+        <v>2019512</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>978</v>
+        <v>3312</v>
       </c>
       <c r="D28" s="7">
-        <v>934894</v>
+        <v>3391790</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
-        <v>1529</v>
+        <v>5285</v>
       </c>
       <c r="I28" s="7">
-        <v>1121960</v>
+        <v>3605471</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
-        <v>2507</v>
+        <v>8597</v>
       </c>
       <c r="N28" s="7">
-        <v>2056855</v>
+        <v>6997261</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7">
-        <v>17812</v>
+        <v>37190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="7">
+        <v>23</v>
+      </c>
+      <c r="I29" s="7">
+        <v>16862</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="7">
-        <v>13</v>
-      </c>
-      <c r="I29" s="7">
-        <v>9696</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N29" s="7">
-        <v>27508</v>
+        <v>54053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>7290</v>
+        <v>17455</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7">
+        <v>14411</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="7">
-        <v>8</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6522</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M30" s="7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N30" s="7">
-        <v>13812</v>
+        <v>31866</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>1864</v>
+        <v>6399</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4261</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2535</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="M31" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N31" s="7">
-        <v>4399</v>
+        <v>10660</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>2354</v>
+        <v>4369</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I32" s="7">
-        <v>8246</v>
+        <v>13614</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N32" s="7">
-        <v>10599</v>
+        <v>17983</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,370 +2526,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D33" s="7">
-        <v>964213</v>
+        <v>3457204</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
-        <v>1560</v>
+        <v>5350</v>
       </c>
       <c r="I33" s="7">
-        <v>1148960</v>
+        <v>3654619</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="7">
-        <v>2565</v>
+        <v>8723</v>
       </c>
       <c r="N33" s="7">
-        <v>2113174</v>
+        <v>7111823</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3312</v>
-      </c>
-      <c r="D34" s="7">
-        <v>3312347</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="7">
-        <v>5285</v>
-      </c>
-      <c r="I34" s="7">
-        <v>3745019</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="7">
-        <v>8597</v>
-      </c>
-      <c r="N34" s="7">
-        <v>7057366</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7">
-        <v>33</v>
-      </c>
-      <c r="D35" s="7">
-        <v>40329</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="7">
-        <v>23</v>
-      </c>
-      <c r="I35" s="7">
-        <v>18823</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M35" s="7">
-        <v>56</v>
-      </c>
-      <c r="N35" s="7">
-        <v>59153</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="7">
-        <v>17</v>
-      </c>
-      <c r="D36" s="7">
-        <v>18696</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="7">
-        <v>20</v>
-      </c>
-      <c r="I36" s="7">
-        <v>16574</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="7" t="s">
+      <c r="A34" t="s">
         <v>157</v>
       </c>
-      <c r="M36" s="7">
-        <v>37</v>
-      </c>
-      <c r="N36" s="7">
-        <v>35270</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="7">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7">
-        <v>6447</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>4659</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="7">
-        <v>11</v>
-      </c>
-      <c r="N37" s="7">
-        <v>11106</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4461</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="7">
-        <v>17</v>
-      </c>
-      <c r="I38" s="7">
-        <v>14520</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
-        <v>22</v>
-      </c>
-      <c r="N38" s="7">
-        <v>18980</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3382280</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3799596</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8723</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7181876</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>163</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
